--- a/VA102_worklog.xlsx
+++ b/VA102_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Read about NLTK classifier and look at already existing classifiers</t>
+  </si>
+  <si>
+    <t>Set up git repository</t>
+  </si>
+  <si>
+    <t>Make training and test data set to make the classifier</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,6 +837,28 @@
       </c>
       <c r="C31" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/VA102_worklog.xlsx
+++ b/VA102_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Make training and test data set to make the classifier</t>
+  </si>
+  <si>
+    <t>Research more about classifiers and decide on using NaiveBayesClassifier provided by textblob.classifiers</t>
+  </si>
+  <si>
+    <t>Make the python script to make the classifier</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +865,28 @@
       </c>
       <c r="C33" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>42364</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/VA102_worklog.xlsx
+++ b/VA102_worklog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>VA102 Work Log: [Vaastav Anand]</t>
   </si>
@@ -142,16 +142,20 @@
   </si>
   <si>
     <t>Write script to create a wordcloud for all the SEO reviews</t>
+  </si>
+  <si>
+    <t>Work on Completing the Presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -248,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +274,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,18 +358,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2295918367347"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,12 +778,24 @@
         <v>42443</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>42444</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -800,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -826,7 +846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/VA102_worklog.xlsx
+++ b/VA102_worklog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>VA102 Work Log: [Vaastav Anand]</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Work on Completing the Presentation</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualization</t>
   </si>
 </sst>
 </file>
@@ -361,15 +364,15 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +788,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="5" t="n">
         <v>42444</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -795,7 +798,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>42449</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -820,7 +833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -846,7 +859,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
